--- a/bulletin/macroeconomics/static/macroeconomics/tables/trade_turnover_kazakhstan.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/trade_turnover_kazakhstan.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F338F-3125-41BF-99F9-D3C91DC5B2BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>в млн $</t>
   </si>
@@ -43,12 +42,6 @@
     <t>СГТР 2017-2021. %</t>
   </si>
   <si>
-    <t>янв-апр 2023</t>
-  </si>
-  <si>
-    <t>янв-апрель 2023 к 2022, %</t>
-  </si>
-  <si>
     <t>Товарооборот РК</t>
   </si>
   <si>
@@ -61,14 +54,152 @@
     <t>Торговое сальдо</t>
   </si>
   <si>
-    <t>2022 к 2021 году. %</t>
+    <r>
+      <t>2022 к</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2021 году. %</t>
+    </r>
+  </si>
+  <si>
+    <t>янв-июл 2023</t>
+  </si>
+  <si>
+    <t>янв-июл 2023 к 2022, %</t>
+  </si>
+  <si>
+    <t>94 459</t>
+  </si>
+  <si>
+    <t>97 775</t>
+  </si>
+  <si>
+    <t>86 470</t>
+  </si>
+  <si>
+    <t>101 736</t>
+  </si>
+  <si>
+    <t>135 527</t>
+  </si>
+  <si>
+    <t>133,2</t>
+  </si>
+  <si>
+    <t>11,7</t>
+  </si>
+  <si>
+    <t>79 489</t>
+  </si>
+  <si>
+    <t>105,7</t>
+  </si>
+  <si>
+    <t>61 111</t>
+  </si>
+  <si>
+    <t>58 066</t>
+  </si>
+  <si>
+    <t>47 541</t>
+  </si>
+  <si>
+    <t>60 321</t>
+  </si>
+  <si>
+    <t>84 593</t>
+  </si>
+  <si>
+    <t>140,2</t>
+  </si>
+  <si>
+    <t>11,8</t>
+  </si>
+  <si>
+    <t>44 756</t>
+  </si>
+  <si>
+    <t>91,2</t>
+  </si>
+  <si>
+    <t>33 347</t>
+  </si>
+  <si>
+    <t>39 709</t>
+  </si>
+  <si>
+    <t>38 929</t>
+  </si>
+  <si>
+    <t>41 415</t>
+  </si>
+  <si>
+    <t>50 934</t>
+  </si>
+  <si>
+    <t>123,0</t>
+  </si>
+  <si>
+    <t>11,5</t>
+  </si>
+  <si>
+    <t>34 733</t>
+  </si>
+  <si>
+    <t>132,9</t>
+  </si>
+  <si>
+    <t>27 764</t>
+  </si>
+  <si>
+    <t>18 356</t>
+  </si>
+  <si>
+    <t>8 612</t>
+  </si>
+  <si>
+    <t>18 906</t>
+  </si>
+  <si>
+    <t>33 659</t>
+  </si>
+  <si>
+    <t>178,0</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>10 023</t>
+  </si>
+  <si>
+    <t>43,7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +207,106 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C619A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -93,13 +314,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -160,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -195,7 +497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -372,180 +674,180 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="37.5" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="37.5" thickBot="1">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
-        <v>94459</v>
-      </c>
-      <c r="C2" s="1">
-        <v>97775</v>
-      </c>
-      <c r="D2" s="1">
-        <v>86470</v>
-      </c>
-      <c r="E2" s="1">
-        <v>101736</v>
-      </c>
-      <c r="F2" s="1">
-        <v>134438</v>
-      </c>
-      <c r="G2">
-        <v>132.1</v>
-      </c>
-      <c r="H2">
-        <v>11.5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>43865</v>
-      </c>
-      <c r="J2">
-        <v>109.7</v>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:10" ht="37.5" thickBot="1">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>61111</v>
-      </c>
-      <c r="C3" s="1">
-        <v>58066</v>
-      </c>
-      <c r="D3" s="1">
-        <v>47541</v>
-      </c>
-      <c r="E3" s="1">
-        <v>60321</v>
-      </c>
-      <c r="F3" s="1">
-        <v>84394</v>
-      </c>
-      <c r="G3">
-        <v>139.9</v>
-      </c>
-      <c r="H3">
-        <v>11.7</v>
-      </c>
-      <c r="I3" s="1">
-        <v>25459</v>
-      </c>
-      <c r="J3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>33347</v>
-      </c>
-      <c r="C4" s="1">
-        <v>39709</v>
-      </c>
-      <c r="D4" s="1">
-        <v>38929</v>
-      </c>
-      <c r="E4" s="1">
-        <v>41415</v>
-      </c>
-      <c r="F4" s="1">
-        <v>50044</v>
-      </c>
-      <c r="G4">
-        <v>120.8</v>
-      </c>
-      <c r="H4">
-        <v>11.1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>18406</v>
-      </c>
-      <c r="J4">
-        <v>136.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>27764</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18356</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8612</v>
-      </c>
-      <c r="E5" s="1">
-        <v>18906</v>
-      </c>
-      <c r="F5" s="1">
-        <v>34350</v>
-      </c>
-      <c r="G5">
-        <v>181.7</v>
-      </c>
-      <c r="H5">
-        <v>12.7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>7053</v>
-      </c>
-      <c r="J5">
-        <v>54.1</v>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
